--- a/mathTransformed/HMPSTT_(2016-07-13)_48_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-07-13)_48_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G R H S KadapalakerePavagada</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H SBrahmasandraSira</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G J CKoratagere</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>M G M Girls High School</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -593,6 +618,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Sri Gajanana Girls High School Sira</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -620,6 +650,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S RajavanthiPavagad</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -647,6 +682,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>T R High SchoolMangalavadaPavagada</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -674,6 +714,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S AkkirampuraKoratagere</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -701,6 +746,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>S L N High SchoolMedigeshi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -728,6 +778,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>R P H S MugadalabettaPavagada</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -755,6 +810,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G J CChikkanahalliSira</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -782,6 +842,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S ArasapuraKoratagere</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -809,6 +874,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S MAddakkanahalliSira</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -836,6 +906,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G J C Koratagere</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -863,6 +938,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>S R R H S Neralekere</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -890,6 +970,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H S BaraguruSira</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -917,6 +1002,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>S B R H S ShidlekeneSira</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -944,6 +1034,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>S G H S Kodigenahally</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -971,6 +1066,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>R R H S Hosakere</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -998,6 +1098,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G J C LakkanahalliSira</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1025,6 +1130,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S Krishnapura</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Pavagada</t>
         </is>
       </c>
@@ -1040,7 +1150,8 @@
           <t>Madhugiri.</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>Madhugiri</t>
         </is>
@@ -1069,6 +1180,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G G H SKoratagere</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1096,6 +1212,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S Holavana halliKoratagere</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1123,6 +1244,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S VaddagereKoratagere</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1150,6 +1276,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G J C GuligenahalliSira</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1179,6 +1310,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G J C (High School Section) H L DurgaKunigal</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1208,6 +1344,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Govt. High SchoolMavinakereTuruvekere</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1237,6 +1378,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G J C (High School section) B H Road</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1264,6 +1410,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Govt. High School IppadiKunigal</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1291,6 +1442,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>K M H P S C N Hally</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1318,6 +1474,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H P S KichchavadiKunigal</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1345,6 +1506,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G M H P S SantemavathurKunigal</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1372,6 +1538,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H P S H ThammadihallyC N Hally</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1399,6 +1570,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G B H S ChelurGubbi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1426,6 +1602,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>R R H S Ankanahalli MuttKunigal</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1453,6 +1634,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G H S YalanaduC N Hally</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1482,6 +1668,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>S P S J C (H S) RangapuraTiptur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1509,6 +1700,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G H P S MarendupalyaC N Halli</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1536,6 +1732,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G H P S ChikkarampuraC N Halli</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1563,6 +1764,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>S G H S Vijaya nagar</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1590,6 +1796,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>S L B S H S SarthavallyTiptur</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1617,6 +1828,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G M P S YalanaduC N Hally</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1644,6 +1860,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>P T G R M H STiptur</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1671,6 +1892,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>N S M G H STiptur</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1698,6 +1924,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>G H P S HonnebagiC N Hally</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1725,6 +1956,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>G H S GanganagattaTiptur</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1752,6 +1988,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G H S NellikereTiptur</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1778,6 +2019,11 @@
         </is>
       </c>
       <c r="F51" t="inlineStr">
+        <is>
+          <t>G H S DabbegattaTuruvekere</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>Tumkur</t>
         </is>

--- a/mathTransformed/HMPSTT_(2016-07-13)_48_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-07-13)_48_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pavagada</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1150,10 +1150,9 @@
           <t>Madhugiri.</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1184,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1216,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1248,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1280,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1314,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1348,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1382,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1414,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1446,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1478,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1510,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1542,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1574,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1606,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1638,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1672,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1704,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1736,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1768,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1800,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1832,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1864,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1896,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1928,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1960,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1992,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2024,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
